--- a/QuotingSheet.xlsx
+++ b/QuotingSheet.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\YouTube\43_PrintCosts\Calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunnar.Norin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC620A5-4660-47BF-9779-A7884ED5B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
     <sheet name="Printers" sheetId="2" r:id="rId2"/>
     <sheet name="Materials" sheetId="3" r:id="rId3"/>
     <sheet name="General" sheetId="4" r:id="rId4"/>
+    <sheet name="Translation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,23 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Energy Consumption [kWh/h]</t>
-  </si>
-  <si>
-    <t>Depreciation Time [h]</t>
-  </si>
-  <si>
     <t>CR-10</t>
   </si>
   <si>
-    <t>Material Diameter [mm]</t>
-  </si>
-  <si>
     <t>Energy cost</t>
   </si>
   <si>
@@ -53,197 +46,305 @@
     <t>Prusa i3 MK2s</t>
   </si>
   <si>
-    <t>Spool Size [kg]</t>
-  </si>
-  <si>
     <t>Diameter [mm]</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Nozzel Temp [°C]</t>
-  </si>
-  <si>
-    <t>Bed Temp [°C]</t>
-  </si>
-  <si>
-    <t>Length per roll [m]</t>
-  </si>
-  <si>
-    <t>Density [g/cm³]</t>
-  </si>
-  <si>
     <t>Money unit</t>
   </si>
   <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Filament</t>
+  </si>
+  <si>
+    <t>das Filament - PLA - black</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Printing time</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hh:mm</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Slicing (Supports, Parameters…)</t>
+  </si>
+  <si>
+    <t>Model preparation (Fixing, CAD…)</t>
+  </si>
+  <si>
+    <t>Material change</t>
+  </si>
+  <si>
+    <t>Transfer &amp; Start</t>
+  </si>
+  <si>
+    <t>Job removal</t>
+  </si>
+  <si>
+    <t>Support removal</t>
+  </si>
+  <si>
+    <t>Additional work</t>
+  </si>
+  <si>
+    <t>Failure rate</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Post-processing</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Including failures</t>
+  </si>
+  <si>
+    <t>Markup</t>
+  </si>
+  <si>
+    <t>Suggested prize</t>
+  </si>
+  <si>
+    <t>Quoted prize</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>General print details</t>
+  </si>
+  <si>
+    <t>Printer depreciation</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Customer details</t>
+  </si>
+  <si>
+    <t>Polymaker PC-Max</t>
+  </si>
+  <si>
+    <t>Formfutura ABSpro</t>
+  </si>
+  <si>
+    <t>Formfutura Premium ABS</t>
+  </si>
+  <si>
+    <t>ColoFabb XT-CF20</t>
+  </si>
+  <si>
+    <t>das Filament PETG</t>
+  </si>
+  <si>
+    <t>Ultimaker 3 Extended</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>8:05</t>
+  </si>
+  <si>
+    <t>Cool knife sharpening tool</t>
+  </si>
+  <si>
+    <t>MULTEC Multirap M420</t>
+  </si>
+  <si>
+    <t>Proto Pasta HT-PLA</t>
+  </si>
+  <si>
+    <t>Sovol SV06 Plus</t>
+  </si>
+  <si>
+    <t>Polymaker Polyterra PLA</t>
+  </si>
+  <si>
+    <t>General Tab</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Materials Tab</t>
+  </si>
+  <si>
+    <t>Printers Tab</t>
+  </si>
+  <si>
+    <t>Quote Tab</t>
+  </si>
+  <si>
     <t>€</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Filament</t>
-  </si>
-  <si>
-    <t>das Filament - PLA - black</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Printing time</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>hh:mm</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Preparation</t>
-  </si>
-  <si>
-    <t>Slicing (Supports, Parameters…)</t>
-  </si>
-  <si>
-    <t>Model preparation (Fixing, CAD…)</t>
-  </si>
-  <si>
-    <t>Material change</t>
-  </si>
-  <si>
-    <t>Transfer &amp; Start</t>
-  </si>
-  <si>
-    <t>Job removal</t>
-  </si>
-  <si>
-    <t>Support removal</t>
-  </si>
-  <si>
-    <t>Additional work</t>
-  </si>
-  <si>
-    <t>Failure rate</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Consumables</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Post-processing</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Including failures</t>
-  </si>
-  <si>
-    <t>Markup</t>
-  </si>
-  <si>
-    <t>Suggested prize</t>
-  </si>
-  <si>
-    <t>Quoted prize</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>g || filament</t>
-  </si>
-  <si>
-    <t>h || printing time</t>
-  </si>
-  <si>
-    <t>Quote</t>
-  </si>
-  <si>
-    <t>General print details</t>
-  </si>
-  <si>
-    <t>Printer depreciation</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Customer details</t>
-  </si>
-  <si>
-    <t>Polymaker PC-Max</t>
-  </si>
-  <si>
-    <t>Formfutura ABSpro</t>
-  </si>
-  <si>
-    <t>Formfutura Premium ABS</t>
-  </si>
-  <si>
-    <t>ColoFabb XT-CF20</t>
-  </si>
-  <si>
-    <t>das Filament PETG</t>
-  </si>
-  <si>
-    <t>Ultimaker 3 Extended</t>
-  </si>
-  <si>
-    <t>Some customer</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>8:05</t>
-  </si>
-  <si>
-    <t>Cool knife sharpening tool</t>
-  </si>
-  <si>
-    <t>MULTEC Multirap M420</t>
-  </si>
-  <si>
-    <t>Proto Pasta HT-PLA</t>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Spool Price</t>
+  </si>
+  <si>
+    <t>Spool Size</t>
+  </si>
+  <si>
+    <t>Nozzel Temp</t>
+  </si>
+  <si>
+    <t>Bed Temp</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Material Diameter</t>
+  </si>
+  <si>
+    <t>Depreciation Time</t>
+  </si>
+  <si>
+    <t>Service costs per life</t>
+  </si>
+  <si>
+    <t>Energy Consumption</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Temperature unit</t>
+  </si>
+  <si>
+    <t>Power / hour unit</t>
+  </si>
+  <si>
+    <t>Parts cost</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>cm³</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Cubic Centimeter</t>
+  </si>
+  <si>
+    <t>Millimeter</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Short for minutes</t>
+  </si>
+  <si>
+    <t>Short for hour</t>
+  </si>
+  <si>
+    <t>hh:mm for time</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Shipping Cost</t>
+  </si>
+  <si>
+    <t>Roll length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -310,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,28 +528,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -454,26 +556,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,13 +589,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,7 +626,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -523,29 +639,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Part costs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Translation!$B$74</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Parts cost</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -572,7 +674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -755,7 +857,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -797,7 +899,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -839,7 +941,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -881,7 +983,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -923,7 +1025,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -965,7 +1067,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="sv-SE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1048,19 +1150,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.16</c:v>
+                  <c:v>34.275711688773342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2101666666666667</c:v>
+                  <c:v>1.8187500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1555555555555559</c:v>
+                  <c:v>0.88714583333333341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1120,7 +1222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1695,16 +1797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1733,7 +1835,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2028,17 +2130,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2048,476 +2150,540 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="G2" s="36" t="s">
-        <v>49</v>
+      <c r="A2" s="38" t="str">
+        <f>Translation!B37</f>
+        <v>Customer details</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="G2" s="36" t="str">
+        <f>Translation!B73</f>
+        <v>Summary</v>
       </c>
       <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="31"/>
+      <c r="A3" s="12" t="str">
+        <f>Translation!B38</f>
+        <v>Customer</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="G3" s="34" t="str">
         <f>B10</f>
-        <v>das Filament - PLA - black</v>
+        <v>Polymaker Polyterra PLA</v>
       </c>
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="12" t="str">
+        <f>Translation!B39</f>
+        <v>Date</v>
+      </c>
+      <c r="B4" s="40">
         <v>43016</v>
       </c>
-      <c r="G4" s="5">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="G4" s="3">
         <f>B11</f>
         <v>108</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
+      <c r="H4" s="4" t="str">
+        <f>General!B8&amp;" || "&amp;LOWER(Translation!B43)</f>
+        <v>g || filament</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="G5" s="7">
+      <c r="A5" s="12" t="str">
+        <f>Translation!B40</f>
+        <v>Description</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="G5" s="5">
         <f>D12</f>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>51</v>
+      <c r="H5" s="4" t="str">
+        <f>General!B13&amp;" || "&amp;LOWER(Translation!B45)</f>
+        <v>h || printing time</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>B43</f>
-        <v>33.867441666666664</v>
-      </c>
-      <c r="H6" s="6" t="str">
-        <f>General!$B$5&amp;" || suggested price"</f>
-        <v>€ || suggested price</v>
+        <v>351.41965241147608</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>General!B5&amp;" || "&amp;LOWER(Translation!B71)</f>
+        <v>€ || suggested prize</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f>B44</f>
-        <v>33.869999999999997</v>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f>General!$B$5&amp;" || quoted"</f>
-        <v>€ || quoted</v>
+        <v>338</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f>General!B5&amp;" || "&amp;LOWER(Translation!B72)</f>
+        <v>€ || quoted prize</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="38" t="str">
+        <f>Translation!B41</f>
+        <v>General print details</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="str">
+        <f>Translation!B42</f>
+        <v>Printer</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="str">
+        <f>Translation!B43</f>
+        <v>Filament</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="str">
+        <f>Translation!B44</f>
+        <v>Weight</v>
+      </c>
+      <c r="B11" s="9">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>General!B8</f>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="str">
+        <f>Translation!B45</f>
+        <v>Printing time</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14">
-        <f>(B11/VLOOKUP(B10,Materials!A2:I100,5,FALSE))*4/(VLOOKUP(B10,Materials!A2:I100,2,FALSE)^2*PI())</f>
-        <v>36.210630897010553</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="2" t="str">
+        <f>General!B13</f>
+        <v>h</v>
+      </c>
+      <c r="D12" s="11">
         <f>LEFT(B12,FIND(":",B12)-1)+RIGHT(B12,LEN(B12)-FIND(":",B12))/60</f>
         <v>8.0833333333333339</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
+      <c r="E12" s="2" t="str">
+        <f>General!B13</f>
+        <v>h</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="A13" s="17" t="str">
+        <f>Translation!B46</f>
+        <v>Length</v>
+      </c>
+      <c r="B13" s="11">
+        <f>(B11/VLOOKUP(B10,Materials!A2:J100,5,FALSE))*4/(VLOOKUP(B10,Materials!A2:J100,2,FALSE)^2*PI())</f>
+        <v>44.901182312293088</v>
+      </c>
+      <c r="C13" t="str">
+        <f>General!B12</f>
+        <v>m</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="str">
+        <f>Translation!B47</f>
+        <v>Preparation</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="str">
+        <f>Translation!B48</f>
+        <v>Model preparation (Fixing, CAD…)</v>
+      </c>
+      <c r="B16" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="C16" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="str">
+        <f>Translation!B49</f>
+        <v>Slicing (Supports, Parameters…)</v>
+      </c>
+      <c r="B17" s="9">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="C17" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="str">
+        <f>Translation!B50</f>
+        <v>Material change</v>
+      </c>
+      <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="C18" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="str">
+        <f>Translation!B51</f>
+        <v>Transfer &amp; Start</v>
+      </c>
+      <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="21">
-        <f>SUM(B15:B18)</f>
+      <c r="C19" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="str">
+        <f>Translation!B52</f>
+        <v>Sum</v>
+      </c>
+      <c r="B20" s="18">
+        <f>SUM(B16:B19)</f>
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="C20" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="str">
+        <f>Translation!B53</f>
+        <v>Post-processing</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="str">
+        <f>Translation!B54</f>
+        <v>Job removal</v>
+      </c>
+      <c r="B23" s="9">
         <v>5</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="C23" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="str">
+        <f>Translation!B55</f>
+        <v>Support removal</v>
+      </c>
+      <c r="B24" s="9">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="C24" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="str">
+        <f>Translation!B56</f>
+        <v>Additional work</v>
+      </c>
+      <c r="B25" s="9">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="21">
-        <f>SUM(B22:B24)</f>
+      <c r="C25" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="str">
+        <f>Translation!B57</f>
+        <v>Sum</v>
+      </c>
+      <c r="B26" s="18">
+        <f>SUM(B23:B25)</f>
         <v>15</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="C26" s="2" t="str">
+        <f>General!B14</f>
+        <v>min</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="str">
+        <f>Translation!B58</f>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="str">
+        <f>Translation!B59</f>
+        <v>Consumables</v>
+      </c>
+      <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C29" s="2" t="str">
         <f>General!B5</f>
         <v>€</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="38" t="str">
+        <f>Translation!B60</f>
+        <v>Costs</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="18">
-        <f>B11/1000*VLOOKUP(B10,Materials!A2:I100,9,FALSE)</f>
-        <v>2.16</v>
-      </c>
-      <c r="C32" s="4" t="str">
+      <c r="A32" s="17" t="str">
+        <f>Translation!B61</f>
+        <v>Filament</v>
+      </c>
+      <c r="B32" s="15">
+        <f>B11/1000*VLOOKUP(B10,Materials!A2:J100,9,FALSE)</f>
+        <v>34.275711688773342</v>
+      </c>
+      <c r="C32" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="18">
+      <c r="A33" s="17" t="str">
+        <f>Translation!B62</f>
+        <v>Electricity</v>
+      </c>
+      <c r="B33" s="15">
         <f>D12*VLOOKUP(B9,Printers!A2:G100,6,FALSE)*General!B2</f>
-        <v>0.2101666666666667</v>
-      </c>
-      <c r="C33" s="4" t="str">
+        <v>1.8187500000000001</v>
+      </c>
+      <c r="C33" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="18">
+      <c r="A34" s="17" t="str">
+        <f>Translation!B63</f>
+        <v>Printer depreciation</v>
+      </c>
+      <c r="B34" s="15">
         <f>D12*VLOOKUP(B9,Printers!A2:G100,7,FALSE)</f>
-        <v>2.1555555555555559</v>
-      </c>
-      <c r="C34" s="4" t="str">
+        <v>0.88714583333333341</v>
+      </c>
+      <c r="C34" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="18">
-        <f>B19/60*General!B3</f>
-        <v>7.5</v>
-      </c>
-      <c r="C35" s="4" t="str">
+      <c r="A35" s="17" t="str">
+        <f>Translation!B64</f>
+        <v>Preparation</v>
+      </c>
+      <c r="B35" s="15">
+        <f>B20/60*General!B3</f>
+        <v>87.5</v>
+      </c>
+      <c r="C35" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="18">
-        <f>B25/60*General!B3</f>
-        <v>7.5</v>
-      </c>
-      <c r="C36" s="4" t="str">
+      <c r="A36" s="17" t="str">
+        <f>Translation!B65</f>
+        <v>Post-processing</v>
+      </c>
+      <c r="B36" s="15">
+        <f>B26/60*General!B3</f>
+        <v>87.5</v>
+      </c>
+      <c r="C36" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="18">
-        <f>B28</f>
+      <c r="A37" s="17" t="str">
+        <f>Translation!B66</f>
+        <v>Consumables</v>
+      </c>
+      <c r="B37" s="15">
+        <f>B29</f>
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="str">
+      <c r="C37" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="17">
+      <c r="A38" s="17" t="str">
+        <f>Translation!B67</f>
+        <v>Subtotal</v>
+      </c>
+      <c r="B38" s="14">
         <f>SUM(B32:B37)</f>
-        <v>20.525722222222221</v>
-      </c>
-      <c r="C38" s="4" t="str">
+        <v>212.98160752210669</v>
+      </c>
+      <c r="C38" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="17">
+      <c r="A39" s="17" t="str">
+        <f>Translation!B68</f>
+        <v>Including failures</v>
+      </c>
+      <c r="B39" s="14">
         <f>B38*(General!B4/100+1)</f>
-        <v>22.578294444444445</v>
-      </c>
-      <c r="C39" s="4" t="str">
+        <v>234.27976827431738</v>
+      </c>
+      <c r="C39" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="38" t="str">
+        <f>Translation!B69</f>
+        <v>Quote</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="16">
+      <c r="A42" s="17" t="str">
+        <f>Translation!B70</f>
+        <v>Markup</v>
+      </c>
+      <c r="B42" s="13">
         <v>1.5</v>
       </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="17">
+      <c r="A43" s="17" t="str">
+        <f>Translation!B71</f>
+        <v>Suggested prize</v>
+      </c>
+      <c r="B43" s="14">
         <f>B39*B42</f>
-        <v>33.867441666666664</v>
-      </c>
-      <c r="C43" s="4" t="str">
+        <v>351.41965241147608</v>
+      </c>
+      <c r="C43" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="19">
-        <v>33.869999999999997</v>
-      </c>
-      <c r="C44" s="4" t="str">
+      <c r="A44" s="17" t="str">
+        <f>Translation!B72</f>
+        <v>Quoted prize</v>
+      </c>
+      <c r="B44" s="16">
+        <v>338</v>
+      </c>
+      <c r="C44" s="2" t="str">
         <f>General!$B$5</f>
         <v>€</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C38:C39" formula="1"/>
+    <ignoredError sqref="C38:C39 D12" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Printers!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Materials!A2:A100</xm:f>
           </x14:formula1>
@@ -2530,14 +2696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2545,535 +2711,554 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <f>"Price ["&amp;General!B5&amp;"]"</f>
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="str">
+        <f>Translation!B29</f>
+        <v>Name</v>
+      </c>
+      <c r="B1" s="29" t="str">
+        <f>Translation!B30&amp;" ["&amp;General!B11&amp;"]"</f>
+        <v>Material Diameter [mm]</v>
+      </c>
+      <c r="C1" s="29" t="str">
+        <f>Translation!B31&amp;" ["&amp;General!B5&amp;"]"</f>
         <v>Price [€]</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <f>"Service costs per life ["&amp;General!B5&amp;"]"</f>
+      <c r="D1" s="29" t="str">
+        <f>Translation!B32&amp;" ["&amp;General!B13&amp;"]"</f>
+        <v>Depreciation Time [h]</v>
+      </c>
+      <c r="E1" s="29" t="str">
+        <f>Translation!B33&amp;" ["&amp;General!B5&amp;"]"</f>
         <v>Service costs per life [€]</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="29" t="str">
+        <f>Translation!B34&amp;" ["&amp;General!B7&amp;"]"</f>
+        <v>Energy Consumption [kWh]</v>
+      </c>
+      <c r="G1" s="29" t="str">
+        <f>Translation!B35&amp;" ["&amp;General!B5&amp;"/"&amp;General!B13&amp;"]"</f>
+        <v>Depreciation [€/h]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f>"Depreciation ["&amp;General!B5&amp;"/h]"</f>
-        <v>Depreciation [€/h]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>1.75</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>450</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>100</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>0.15</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="23">
         <f>(C2+E2)/D2</f>
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
         <v>1.75</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>700</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>3000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>100</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>0.1</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="23">
         <f>(C3+E3)/D3</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9">
         <v>2.85</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>4400</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>4000</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>250</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>0.11</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <f>(C4+E4)/D4</f>
         <v>1.1625000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="9">
         <v>2.85</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>5549</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>5000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>300</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>0.12</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <f>(C5+E5)/D5</f>
         <v>1.1698</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25"/>
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="C6" s="9">
+        <v>389</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>50</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="21">
+        <f>(C6+E6)/D6</f>
+        <v>0.10975</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="25"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="25"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="25"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="25"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="25"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="25"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="25"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="25"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="25"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="25"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="25"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="25"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="25"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="25"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="25"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="25"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="25"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="25"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="25"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="25"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="25"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="25"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3082,765 +3267,1738 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>Translation!B18</f>
+        <v>Manufacturer</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>Translation!B19&amp;" ["&amp;General!B11&amp;"]"</f>
+        <v>Diameter [mm]</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>Translation!B20&amp;" ["&amp;General!B5&amp;"]"</f>
+        <v>Spool Price [€]</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>Translation!B21&amp;" ["&amp;General!B5&amp;"]"</f>
+        <v>Shipping Cost [€]</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>Translation!B22&amp;" ["&amp;General!B9&amp;"]"</f>
+        <v>Spool Size [kg]</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>Translation!B23&amp;" ["&amp;General!B8&amp;"/"&amp;General!B10&amp;"]"</f>
+        <v>Density [g/cm³]</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>Translation!B24&amp;" [°"&amp;General!B6&amp;"]"</f>
+        <v>Nozzel Temp [°C]</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>Translation!B25&amp;" [°"&amp;General!B6&amp;"]"</f>
+        <v>Bed Temp [°C]</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>Translation!B26&amp;" ["&amp;General!B12&amp;"]"</f>
+        <v>Roll length [m]</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>Translation!B27&amp;" ["&amp;General!B5&amp;"/"&amp;General!B9&amp;"]"</f>
+        <v>Price [€/kg]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="C2" s="27">
+        <v>16</v>
+      </c>
+      <c r="D2" s="27">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="str">
-        <f>"Spool Price ["&amp;General!B5&amp;"]"</f>
-        <v>Spool Price [€]</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f>"Price ["&amp;General!B5&amp;"/kg]"</f>
-        <v>Price [€/kg]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="E2" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1.24</v>
+      </c>
+      <c r="G2" s="9">
+        <v>220</v>
+      </c>
+      <c r="H2" s="9">
+        <v>60</v>
+      </c>
+      <c r="I2" s="20">
+        <f t="shared" ref="I2:I9" si="0">E2/F2*4/(PI()*(B2/100)^2)/10</f>
+        <v>268.22689553341149</v>
+      </c>
+      <c r="J2" s="23">
+        <f>IF(E2,(C2+D2)/E2,"")</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9">
         <v>1.75</v>
       </c>
-      <c r="C2" s="22">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1.24</v>
-      </c>
-      <c r="F2" s="12">
-        <v>220</v>
-      </c>
-      <c r="G2" s="12">
-        <v>60</v>
-      </c>
-      <c r="H2" s="24">
-        <f t="shared" ref="H2:H8" si="0">D2/E2*4/(PI()*(B2/100)^2)/10</f>
-        <v>268.22689553341149</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I8" si="1">C2/D2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="C3" s="27">
         <v>45</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>0.75</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="19">
         <v>1.19</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="9">
         <v>260</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H3" s="9">
         <v>80</v>
       </c>
-      <c r="H3" s="24">
+      <c r="I3" s="20">
         <f t="shared" si="0"/>
         <v>262.02837483831161</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" si="1"/>
+      <c r="J3" s="23">
+        <f t="shared" ref="J3:J50" si="1">IF(E3,(C3+D3)/E3,"")</f>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9">
         <v>1.75</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="27">
         <v>35</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="27">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.5</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="19">
         <v>1.05</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="9">
         <v>260</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="9">
         <v>115</v>
       </c>
-      <c r="H4" s="24">
+      <c r="I4" s="20">
         <f t="shared" si="0"/>
         <v>197.97699432227989</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="23">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9">
         <v>1.75</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="27">
         <v>30</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="27">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="19">
         <v>1.03</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="9">
         <v>250</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="9">
         <v>100</v>
       </c>
-      <c r="H5" s="24">
+      <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>403.64241560853185</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9">
         <v>1.75</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="27">
         <v>50</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="27">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.75</v>
       </c>
-      <c r="E6" s="23">
+      <c r="F6" s="19">
         <v>1.27</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="9">
         <v>250</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="9">
         <v>65</v>
       </c>
-      <c r="H6" s="24">
+      <c r="I6" s="20">
         <f t="shared" si="0"/>
         <v>245.52265043904791</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="23">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="12">
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9">
         <v>1.75</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="27">
         <v>22</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19">
         <v>0.8</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F7" s="19">
         <v>1.27</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="9">
         <v>225</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="9">
         <v>65</v>
       </c>
-      <c r="H7" s="24">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>261.89082713498442</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="23">
         <f t="shared" si="1"/>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="12">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9">
         <v>1.75</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="27">
         <v>64.900000000000006</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="27">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19">
         <v>0.5</v>
       </c>
-      <c r="E8" s="23">
+      <c r="F8" s="19">
         <v>1.24</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="9">
         <v>220</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="24">
+      <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>167.6418097083822</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="23">
         <f t="shared" si="1"/>
-        <v>129.80000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="25"/>
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="C9" s="27">
+        <v>23.9</v>
+      </c>
+      <c r="D9" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1.31</v>
+      </c>
+      <c r="G9" s="9">
+        <v>210</v>
+      </c>
+      <c r="H9" s="9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>317.3677008219754</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="1"/>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I38">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>B5&amp;"/kWh"</f>
+      <c r="A2" s="1" t="str">
+        <f>Translation!B3</f>
+        <v>Energy cost</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>General!B5&amp;"/"&amp;General!B7</f>
         <v>€/kWh</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="12">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f>B5&amp;"/h"</f>
+      <c r="A3" s="1" t="str">
+        <f>Translation!B4</f>
+        <v>Labor Costs</v>
+      </c>
+      <c r="B3" s="9">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>General!B5&amp;"/"&amp;General!B13</f>
         <v>€/h</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="1" t="str">
+        <f>Translation!B5</f>
+        <v>Failure rate</v>
+      </c>
+      <c r="B4" s="9">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1" t="str">
+        <f>Translation!B6</f>
+        <v>Money unit</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>Translation!B7</f>
+        <v>Temperature unit</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>Translation!B8</f>
+        <v>Power / hour unit</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>Translation!B9</f>
+        <v>Gram</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>Translation!B10</f>
+        <v>Kilogram</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>Translation!B11</f>
+        <v>Cubic Centimeter</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>Translation!B12</f>
+        <v>Millimeter</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>Translation!B13</f>
+        <v>Meter</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>Translation!B14</f>
+        <v>Short for hour</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>Translation!B15</f>
+        <v>Short for minutes</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>Translation!B16</f>
+        <v>hh:mm for time</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F302BA98-1140-494C-AF96-3A354C1EC8E5}">
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>